--- a/biobigbox_01232016/Documents/BioBigBox Task Breakup.xlsx
+++ b/biobigbox_01232016/Documents/BioBigBox Task Breakup.xlsx
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -700,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -824,7 +824,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="D31" s="2">
         <f>SUM(D2:D30)</f>
-        <v>210.5</v>
+        <v>214</v>
       </c>
       <c r="E31" s="6"/>
     </row>
